--- a/data/output/Pedido_Semana_08_09022026_utiles_jardin.xlsx
+++ b/data/output/Pedido_Semana_08_09022026_utiles_jardin.xlsx
@@ -3386,7 +3386,7 @@
         <v>2</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="4" t="n">
         <v>10.5</v>
@@ -4038,7 +4038,7 @@
         </is>
       </c>
       <c r="C56" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/Pedido_Semana_08_09022026_utiles_jardin.xlsx
+++ b/data/output/Pedido_Semana_08_09022026_utiles_jardin.xlsx
@@ -1216,7 +1216,7 @@
         <v>2</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="3" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>4</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R10" s="3" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="3" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>2</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="3" t="n">
         <v>0</v>
@@ -1945,7 +1945,7 @@
         <v>2</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="3" t="n">
         <v>0</v>
@@ -2107,7 +2107,7 @@
         <v>2</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="3" t="n">
         <v>0</v>
@@ -2917,7 +2917,7 @@
         <v>3</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="3" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>3</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R35" s="3" t="n">
         <v>0</v>
@@ -3403,7 +3403,7 @@
         <v>6</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R36" s="3" t="n">
         <v>0</v>
